--- a/biology/Biochimie/Bêta-Amyrine_synthase/Bêta-Amyrine_synthase.xlsx
+++ b/biology/Biochimie/Bêta-Amyrine_synthase/Bêta-Amyrine_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%AAta-Amyrine_synthase</t>
+          <t>Bêta-Amyrine_synthase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La β-amyrine synthase est une isomérase qui catalyse la réaction :
 (3S)-2,3-époxy-2,3-dihydrosqualène  
         ⇌
     {\displaystyle \rightleftharpoons }
    β-amyrine.
-Cette enzyme est une oxydosqualène cyclase qui intervient dans la biosynthèse des stéroïdes[1],[2]. Elle est monofonctionnelle chez certains organismes[3],[4],[5],[6],[7],[8],[9],[10] mais polyfonctionnelle chez d'autres, pouvant catalyser la formation d'α-amyrine[11] ou de lupéol[5].
+Cette enzyme est une oxydosqualène cyclase qui intervient dans la biosynthèse des stéroïdes,. Elle est monofonctionnelle chez certains organismes mais polyfonctionnelle chez d'autres, pouvant catalyser la formation d'α-amyrine ou de lupéol.
 			(3S)-2,3-Époxy-2,3-dihydrosqualène.
 			β-Amyrine.
 </t>
